--- a/results/I3_N5_M2_T45_C150_DepLowerLeft_s3_res.xlsx
+++ b/results/I3_N5_M2_T45_C150_DepLowerLeft_s3_res.xlsx
@@ -473,7 +473,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>191.2600370209954</v>
+        <v>256.7416712139282</v>
       </c>
     </row>
     <row r="4">
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.6309998035430908</v>
+        <v>1.286999940872192</v>
       </c>
     </row>
     <row r="5">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>33.42003702099418</v>
+        <v>36.74167121392826</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1.336610638892269</v>
+        <v>7.321066588960928</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1.336610638892269</v>
+        <v>7.321066588960928</v>
       </c>
     </row>
     <row r="9">
@@ -533,7 +533,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>157.8400000000013</v>
+        <v>72</v>
       </c>
     </row>
     <row r="10">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>148</v>
       </c>
     </row>
   </sheetData>
@@ -557,7 +557,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -584,12 +584,45 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B2" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>3</v>
+      </c>
+      <c r="B3" t="n">
+        <v>2</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="n">
+        <v>3</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>4</v>
+      </c>
+      <c r="C5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -634,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -645,7 +678,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -656,7 +689,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -667,7 +700,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -678,7 +711,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -689,7 +722,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -758,7 +791,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -780,7 +813,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -863,7 +896,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>42.53018219295431</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4">
@@ -871,7 +904,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>30</v>
+        <v>27.08084937312966</v>
       </c>
     </row>
     <row r="5">
@@ -879,7 +912,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>30</v>
+        <v>35.84866676379884</v>
       </c>
     </row>
     <row r="6">
@@ -887,7 +920,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>36.23570364914818</v>
+        <v>29.61296311465076</v>
       </c>
     </row>
     <row r="7">
@@ -895,7 +928,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>38.31694680553866</v>
+        <v>34.22809649842566</v>
       </c>
     </row>
     <row r="8">
@@ -925,7 +958,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -957,15 +990,57 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B2" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C2" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>3</v>
+      </c>
+      <c r="B3" t="n">
+        <v>6</v>
+      </c>
+      <c r="C3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="n">
+        <v>6</v>
+      </c>
+      <c r="C4" t="n">
+        <v>3</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>6</v>
+      </c>
+      <c r="C5" t="n">
+        <v>4</v>
+      </c>
+      <c r="D5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1068,7 +1143,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>151.409999999999</v>
+        <v>68</v>
       </c>
     </row>
     <row r="8">
@@ -1079,7 +1154,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>156.3</v>
+        <v>76</v>
       </c>
     </row>
     <row r="9">
@@ -1090,7 +1165,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>150.5049999999997</v>
+        <v>74</v>
       </c>
     </row>
     <row r="10">
@@ -1101,7 +1176,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>154.0549999999986</v>
+        <v>69</v>
       </c>
     </row>
     <row r="11">
@@ -1112,7 +1187,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>149.725</v>
+        <v>71</v>
       </c>
     </row>
     <row r="12">
@@ -1123,7 +1198,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>85.68999999999978</v>
+        <v>43</v>
       </c>
     </row>
     <row r="13">
@@ -1134,7 +1209,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>96.85999999999979</v>
+        <v>49</v>
       </c>
     </row>
     <row r="14">
@@ -1145,7 +1220,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>81.12999999999978</v>
+        <v>41</v>
       </c>
     </row>
     <row r="15">
@@ -1156,7 +1231,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>89.87499999999977</v>
+        <v>43</v>
       </c>
     </row>
     <row r="16">
@@ -1167,7 +1242,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>86.54000000000066</v>
+        <v>42</v>
       </c>
     </row>
     <row r="17">
@@ -1178,7 +1253,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>45.6</v>
+        <v>155</v>
       </c>
     </row>
     <row r="18">
@@ -1189,7 +1264,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>38.72499999999985</v>
+        <v>164</v>
       </c>
     </row>
     <row r="19">
@@ -1200,7 +1275,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>42.39499999999985</v>
+        <v>157</v>
       </c>
     </row>
     <row r="20">
@@ -1211,7 +1286,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>38.17499999999986</v>
+        <v>157</v>
       </c>
     </row>
     <row r="21">
@@ -1222,7 +1297,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>41.26499999999986</v>
+        <v>153</v>
       </c>
     </row>
     <row r="22">
@@ -1233,7 +1308,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>112.9200000000012</v>
+        <v>91</v>
       </c>
     </row>
     <row r="23">
@@ -1244,7 +1319,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>114.9300000000009</v>
+        <v>106</v>
       </c>
     </row>
     <row r="24">
@@ -1255,7 +1330,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>123.5850000000015</v>
+        <v>94</v>
       </c>
     </row>
     <row r="25">
@@ -1266,7 +1341,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>108.7649999999992</v>
+        <v>94</v>
       </c>
     </row>
     <row r="26">
@@ -1277,7 +1352,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>115.85</v>
+        <v>98</v>
       </c>
     </row>
     <row r="27">
@@ -1288,7 +1363,7 @@
         <v>1</v>
       </c>
       <c r="C27" t="n">
-        <v>158.8950000000015</v>
+        <v>126</v>
       </c>
     </row>
     <row r="28">
@@ -1299,7 +1374,7 @@
         <v>2</v>
       </c>
       <c r="C28" t="n">
-        <v>160.3750000000007</v>
+        <v>144</v>
       </c>
     </row>
     <row r="29">
@@ -1310,7 +1385,7 @@
         <v>3</v>
       </c>
       <c r="C29" t="n">
-        <v>165.945000000002</v>
+        <v>133</v>
       </c>
     </row>
     <row r="30">
@@ -1321,7 +1396,7 @@
         <v>4</v>
       </c>
       <c r="C30" t="n">
-        <v>164.0849999999989</v>
+        <v>137</v>
       </c>
     </row>
     <row r="31">
@@ -1332,7 +1407,7 @@
         <v>5</v>
       </c>
       <c r="C31" t="n">
-        <v>167.35</v>
+        <v>130</v>
       </c>
     </row>
     <row r="32">
@@ -1343,7 +1418,7 @@
         <v>1</v>
       </c>
       <c r="C32" t="n">
-        <v>151.4099999999999</v>
+        <v>155</v>
       </c>
     </row>
     <row r="33">
@@ -1354,7 +1429,7 @@
         <v>2</v>
       </c>
       <c r="C33" t="n">
-        <v>156.3</v>
+        <v>164</v>
       </c>
     </row>
     <row r="34">
@@ -1365,7 +1440,7 @@
         <v>3</v>
       </c>
       <c r="C34" t="n">
-        <v>150.5049999999992</v>
+        <v>157</v>
       </c>
     </row>
     <row r="35">
@@ -1376,7 +1451,7 @@
         <v>4</v>
       </c>
       <c r="C35" t="n">
-        <v>154.0549999999985</v>
+        <v>157</v>
       </c>
     </row>
     <row r="36">
@@ -1387,7 +1462,7 @@
         <v>5</v>
       </c>
       <c r="C36" t="n">
-        <v>149.725</v>
+        <v>153</v>
       </c>
     </row>
     <row r="37">
@@ -1398,7 +1473,7 @@
         <v>1</v>
       </c>
       <c r="C37" t="n">
-        <v>158.8950000000015</v>
+        <v>126</v>
       </c>
     </row>
     <row r="38">
@@ -1409,7 +1484,7 @@
         <v>2</v>
       </c>
       <c r="C38" t="n">
-        <v>160.3750000000007</v>
+        <v>144</v>
       </c>
     </row>
     <row r="39">
@@ -1420,7 +1495,7 @@
         <v>3</v>
       </c>
       <c r="C39" t="n">
-        <v>165.945000000002</v>
+        <v>133</v>
       </c>
     </row>
     <row r="40">
@@ -1431,7 +1506,7 @@
         <v>4</v>
       </c>
       <c r="C40" t="n">
-        <v>164.0849999999989</v>
+        <v>137</v>
       </c>
     </row>
     <row r="41">
@@ -1442,7 +1517,7 @@
         <v>5</v>
       </c>
       <c r="C41" t="n">
-        <v>167.35</v>
+        <v>130</v>
       </c>
     </row>
   </sheetData>
@@ -1489,7 +1564,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>1.409999999999854</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -1500,7 +1575,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>6.3</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4">
@@ -1511,7 +1586,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>0.5049999999991996</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -1522,7 +1597,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>4.054999999998472</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6">
@@ -1533,7 +1608,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7">
@@ -1544,7 +1619,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>8.895000000001527</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1555,7 +1630,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>10.37500000000064</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1566,7 +1641,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>15.94500000000203</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1577,7 +1652,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>14.08499999999892</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1588,7 +1663,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>17.35</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1690,7 +1765,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8">
@@ -1701,7 +1776,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9">
@@ -1712,7 +1787,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10">
@@ -1723,7 +1798,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11">
@@ -1734,7 +1809,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12">
@@ -1800,7 +1875,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18">
@@ -1811,7 +1886,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="19">
@@ -1822,7 +1897,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="20">
@@ -1833,7 +1908,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21">
@@ -1844,7 +1919,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="22">
@@ -1913,7 +1988,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1940,7 +2015,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B2" t="n">
         <v>1</v>
@@ -1951,7 +2026,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B3" t="n">
         <v>2</v>
@@ -1962,7 +2037,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B4" t="n">
         <v>3</v>
@@ -1973,7 +2048,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B5" t="n">
         <v>4</v>
@@ -1984,56 +2059,12 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="n">
-        <v>2</v>
-      </c>
-      <c r="C7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>5</v>
-      </c>
-      <c r="B8" t="n">
-        <v>3</v>
-      </c>
-      <c r="C8" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>5</v>
-      </c>
-      <c r="B9" t="n">
-        <v>4</v>
-      </c>
-      <c r="C9" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>5</v>
-      </c>
-      <c r="B10" t="n">
-        <v>5</v>
-      </c>
-      <c r="C10" t="n">
         <v>1</v>
       </c>
     </row>
